--- a/tf_figure/res.xlsx
+++ b/tf_figure/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,99 +439,173 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999948997030296</v>
+        <v>999.9999999986801</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>R21</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>999.9996904219061</v>
+        <v>999.9999999986669</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>R22</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999948419790599</v>
+        <v>999.9999999986795</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>R23</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999994841980083</v>
+        <v>999.9999999986849</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>1000.999685206159</v>
+        <v>999.9999999986812</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>500.9998400240686</v>
+        <v>999.9999999986865</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>R26</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>500.9998400240695</v>
+        <v>499.9999999993395</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>R27</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>500.9998400240655</v>
+        <v>999.9999999847694</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>R28</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>500.9998400240688</v>
+        <v>1999.999999983452</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>R29</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>500.999840024067</v>
+        <v>1999.999999983428</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>R30</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>500.9998400240685</v>
+        <v>1499.999999991063</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>R31</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>500.9998400240652</v>
+        <v>1499.999999991066</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>R32</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1499.999999991054</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1499.999999991059</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>R34</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1499.999999991058</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>R35</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1499.999999991063</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>R36</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1499.999999991074</v>
       </c>
     </row>
   </sheetData>
